--- a/R/analysis/data/Pt_13_Experimental.xlsx
+++ b/R/analysis/data/Pt_13_Experimental.xlsx
@@ -524,7 +524,7 @@
         <v>0.96</v>
       </c>
       <c r="N2" t="n">
-        <v>-2.25</v>
+        <v>2.25</v>
       </c>
       <c r="O2" t="n">
         <v>0.35</v>
@@ -578,7 +578,7 @@
         <v>1.03</v>
       </c>
       <c r="L3" t="n">
-        <v>-3.67</v>
+        <v>3.67</v>
       </c>
       <c r="M3" t="n">
         <v>0.71</v>
@@ -635,16 +635,16 @@
         <v>2.84</v>
       </c>
       <c r="K4" t="n">
-        <v>4.01</v>
+        <v>1.18</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.84</v>
+        <v>2.84</v>
       </c>
       <c r="M4" t="n">
-        <v>2.65</v>
+        <v>0.53</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.38</v>
+        <v>1.88</v>
       </c>
       <c r="O4" t="n">
         <v>0.08</v>
@@ -695,16 +695,16 @@
         <v>1.7</v>
       </c>
       <c r="K5" t="n">
-        <v>2.38</v>
+        <v>0.82</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="M5" t="n">
         <v>0.5</v>
       </c>
       <c r="N5" t="n">
-        <v>-2.75</v>
+        <v>2.75</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0.76</v>
       </c>
       <c r="L6" t="n">
-        <v>-3.29</v>
+        <v>3.29</v>
       </c>
       <c r="M6"/>
       <c r="N6" t="n">
@@ -811,16 +811,16 @@
         <v>1.68</v>
       </c>
       <c r="K7" t="n">
-        <v>2.68</v>
+        <v>0.91</v>
       </c>
       <c r="L7" t="n">
-        <v>-1.4</v>
+        <v>2.64</v>
       </c>
       <c r="M7" t="n">
-        <v>2.65</v>
+        <v>1.24</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.88</v>
+        <v>1.88</v>
       </c>
       <c r="O7" t="n">
         <v>0.08</v>
@@ -880,7 +880,7 @@
         <v>1.41</v>
       </c>
       <c r="N8" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -932,7 +932,7 @@
         <v>0.52</v>
       </c>
       <c r="L9" t="n">
-        <v>-3.38</v>
+        <v>3.38</v>
       </c>
       <c r="M9"/>
       <c r="N9" t="e">
@@ -985,14 +985,14 @@
         <v>1.66</v>
       </c>
       <c r="K10" t="n">
-        <v>3.68</v>
+        <v>1.1</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.77</v>
+        <v>2.6</v>
       </c>
       <c r="M10"/>
       <c r="N10" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="M11"/>
       <c r="N11" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>1.03</v>
       </c>
       <c r="L12" t="n">
-        <v>-3.33</v>
+        <v>3.33</v>
       </c>
       <c r="M12" t="n">
         <v>2.12</v>
@@ -1159,16 +1159,16 @@
         <v>2.97</v>
       </c>
       <c r="K13" t="n">
-        <v>4.48</v>
+        <v>0.23</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.17</v>
+        <v>3.16</v>
       </c>
       <c r="M13" t="n">
-        <v>2.47</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>0.75</v>
+        <v>1.75</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1282,7 +1282,7 @@
         <v>1.3</v>
       </c>
       <c r="L15" t="n">
-        <v>-3.8</v>
+        <v>3.8</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>1.86</v>
       </c>
       <c r="K16" t="n">
-        <v>4.69</v>
+        <v>0.69</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.48</v>
+        <v>3.32</v>
       </c>
       <c r="M16" t="n">
-        <v>3.54</v>
+        <v>0.71</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.5</v>
+        <v>2.5</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1408,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1460,7 +1460,7 @@
         <v>1.15</v>
       </c>
       <c r="L18" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="M18"/>
       <c r="N18" t="n">
@@ -1515,16 +1515,16 @@
         <v>1.38</v>
       </c>
       <c r="K19" t="n">
-        <v>5.07</v>
+        <v>0.59</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.42</v>
+        <v>3.58</v>
       </c>
       <c r="M19" t="n">
-        <v>4.24</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1580,7 +1580,7 @@
       </c>
       <c r="M20"/>
       <c r="N20" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1634,7 +1634,7 @@
         <v>1.3</v>
       </c>
       <c r="L21" t="n">
-        <v>-2.2</v>
+        <v>2.2</v>
       </c>
       <c r="M21" t="n">
         <v>1.15</v>
@@ -1691,16 +1691,16 @@
         <v>2.1</v>
       </c>
       <c r="K22" t="n">
-        <v>3.47</v>
+        <v>0.36</v>
       </c>
       <c r="L22" t="n">
-        <v>0.25</v>
+        <v>2.46</v>
       </c>
       <c r="M22" t="n">
-        <v>4.72</v>
+        <v>0.94</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.66</v>
+        <v>3.34</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1756,7 +1756,7 @@
       </c>
       <c r="M23"/>
       <c r="N23" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0.5</v>
       </c>
       <c r="L24" t="n">
-        <v>-2.75</v>
+        <v>2.75</v>
       </c>
       <c r="M24" t="n">
         <v>0.96</v>
@@ -1867,16 +1867,16 @@
         <v>1.52</v>
       </c>
       <c r="K25" t="n">
-        <v>3.66</v>
+        <v>0.23</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.16</v>
+        <v>2.59</v>
       </c>
       <c r="M25" t="n">
-        <v>3.71</v>
+        <v>0.53</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.38</v>
+        <v>2.62</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
         <v>0.84</v>
       </c>
       <c r="L27" t="n">
-        <v>-3.2</v>
+        <v>3.2</v>
       </c>
       <c r="M27" t="n">
         <v>1.15</v>
@@ -2041,10 +2041,10 @@
         <v>1.54</v>
       </c>
       <c r="K28" t="n">
-        <v>4.3</v>
+        <v>0.23</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.16</v>
+        <v>3.04</v>
       </c>
       <c r="M28"/>
       <c r="N28" t="n">
